--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26F3E40-E326-4CBF-A587-C4088B6475A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A209FF-DCC1-4080-905C-C92A0E8CE8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{D5EEE11A-71B2-4A99-8316-7B93F3FF3CE8}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{2BD4230B-E1FE-413A-9E8A-2258B1D81DE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065BA8D1-2C15-4D3D-8981-1D4F97F7E5A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACB2894-F44F-40B1-98AD-08FED33E4B28}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A209FF-DCC1-4080-905C-C92A0E8CE8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127B3BB1-4209-409A-926B-AF6EF700B208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{2BD4230B-E1FE-413A-9E8A-2258B1D81DE4}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{FE7149C0-D7E7-4D2D-92F0-69BBAA77360D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACB2894-F44F-40B1-98AD-08FED33E4B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE4B67A-971F-42F0-A71C-23F60B78767D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2.4979337264564965</v>
+        <v>1.0028345883636043</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127B3BB1-4209-409A-926B-AF6EF700B208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E67268C-FD04-4C7F-A656-A78C252BD7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{FE7149C0-D7E7-4D2D-92F0-69BBAA77360D}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{2B267F8D-0726-4BAE-88C4-D9F947FF9A8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE4B67A-971F-42F0-A71C-23F60B78767D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C54C4D6-6248-47D7-ADE6-AF5055466C44}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.0028345883636043</v>
+        <v>3.0869380577906647</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E67268C-FD04-4C7F-A656-A78C252BD7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F8F497-C1DF-4408-A1BA-8FF969F884FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{2B267F8D-0726-4BAE-88C4-D9F947FF9A8C}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{63A046DE-437F-4F45-899E-9AECCB867430}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C54C4D6-6248-47D7-ADE6-AF5055466C44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C9F8B6-D176-4C36-9091-1189E9B2C55C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
